--- a/ML_Model/data_set/monthlyInvestigation/cleaned_monthly_investigations.xlsx
+++ b/ML_Model/data_set/monthlyInvestigation/cleaned_monthly_investigations.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -506,10 +510,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C2" t="n">
         <v>28.6</v>
@@ -551,10 +553,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C3" t="n">
         <v>37.7</v>
@@ -596,10 +596,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C4" t="n">
         <v>40.6</v>
@@ -641,10 +639,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C5" t="n">
         <v>35.8</v>
@@ -686,10 +682,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C6" t="n">
         <v>36.9</v>
@@ -731,10 +725,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C7" t="n">
         <v>34.5</v>
@@ -776,10 +768,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C8" t="n">
         <v>40.3</v>
@@ -821,10 +811,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C9" t="n">
         <v>35.1</v>
@@ -866,10 +854,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C10" t="n">
         <v>34.4</v>
@@ -911,10 +897,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C11" t="n">
         <v>31.9</v>
@@ -956,10 +940,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C12" t="n">
         <v>37.9</v>
@@ -1001,10 +983,8 @@
           <t>RHD_THP_001</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C13" t="n">
         <v>34.5</v>
@@ -1046,10 +1026,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C14" t="n">
         <v>38.7</v>
@@ -1091,10 +1069,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C15" t="n">
         <v>36.3</v>
@@ -1136,10 +1112,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C16" t="n">
         <v>36.8</v>
@@ -1181,10 +1155,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C17" t="n">
         <v>35.2</v>
@@ -1226,10 +1198,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C18" t="n">
         <v>33.3</v>
@@ -1271,10 +1241,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C19" t="n">
         <v>36.2</v>
@@ -1316,10 +1284,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C20" t="n">
         <v>36</v>
@@ -1361,10 +1327,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C21" t="n">
         <v>35.3</v>
@@ -1406,10 +1370,8 @@
           <t>RHD_THP_002</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C22" t="n">
         <v>38.1</v>
@@ -1451,10 +1413,8 @@
           <t>RHD_THP_003</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C23" t="n">
         <v>21</v>
@@ -1496,10 +1456,8 @@
           <t>RHD_THP_003</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C24" t="n">
         <v>33.6</v>
@@ -1541,10 +1499,8 @@
           <t>RHD_THP_003</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C25" t="n">
         <v>31</v>
@@ -1586,10 +1542,8 @@
           <t>RHD_THP_003</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C26" t="n">
         <v>31.5</v>
@@ -1631,10 +1585,8 @@
           <t>RHD_THP_003</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C27" t="n">
         <v>31.2</v>
@@ -1676,10 +1628,8 @@
           <t>RHD_THP_003</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C28" t="n">
         <v>30.8</v>
@@ -1721,10 +1671,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C29" t="n">
         <v>34.8</v>
@@ -1766,10 +1714,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C30" t="n">
         <v>37.3</v>
@@ -1811,10 +1757,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C31" t="n">
         <v>37.8</v>
@@ -1856,10 +1800,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C32" t="n">
         <v>42.8</v>
@@ -1901,10 +1843,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C33" t="n">
         <v>36.2</v>
@@ -1946,10 +1886,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C34" t="n">
         <v>33.7</v>
@@ -1991,10 +1929,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C35" t="n">
         <v>34.7</v>
@@ -2036,10 +1972,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C36" t="n">
         <v>35.7</v>
@@ -2081,10 +2015,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B37" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C37" t="n">
         <v>36.7</v>
@@ -2126,10 +2058,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B38" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C38" t="n">
         <v>41.3</v>
@@ -2171,10 +2101,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B39" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C39" t="n">
         <v>41.15</v>
@@ -2216,10 +2144,8 @@
           <t>RHD_THP_004</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B40" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C40" t="n">
         <v>41</v>
@@ -2261,10 +2187,8 @@
           <t>RHD_THP_005</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B41" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C41" t="n">
         <v>29.4</v>
@@ -2306,10 +2230,8 @@
           <t>RHD_THP_005</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B42" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C42" t="n">
         <v>29.4</v>
@@ -2351,10 +2273,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B43" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C43" t="n">
         <v>25</v>
@@ -2396,10 +2316,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B44" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C44" t="n">
         <v>38.8</v>
@@ -2441,10 +2359,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B45" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C45" t="n">
         <v>28.3</v>
@@ -2486,10 +2402,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B46" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C46" t="n">
         <v>38.3</v>
@@ -2531,10 +2445,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B47" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C47" t="n">
         <v>33</v>
@@ -2576,10 +2488,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B48" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C48" t="n">
         <v>30.3</v>
@@ -2621,10 +2531,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B49" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C49" t="n">
         <v>39.5</v>
@@ -2666,10 +2574,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B50" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C50" t="n">
         <v>34</v>
@@ -2711,10 +2617,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B51" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C51" t="n">
         <v>29</v>
@@ -2756,10 +2660,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B52" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C52" t="n">
         <v>37</v>
@@ -2801,10 +2703,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B53" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C53" t="n">
         <v>35.7</v>
@@ -2846,10 +2746,8 @@
           <t>RHD_THP_006</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C54" t="n">
         <v>34.4</v>
@@ -2891,10 +2789,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B55" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C55" t="n">
         <v>28.8</v>
@@ -2936,10 +2832,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B56" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C56" t="n">
         <v>30.7</v>
@@ -2981,10 +2875,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B57" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C57" t="n">
         <v>26.7</v>
@@ -3026,10 +2918,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B58" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C58" t="n">
         <v>27</v>
@@ -3071,10 +2961,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B59" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C59" t="n">
         <v>28.6</v>
@@ -3116,10 +3004,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B60" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C60" t="n">
         <v>30.2</v>
@@ -3161,10 +3047,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B61" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C61" t="n">
         <v>31.8</v>
@@ -3206,10 +3090,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C62" t="n">
         <v>35.3</v>
@@ -3251,10 +3133,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B63" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C63" t="n">
         <v>34.2</v>
@@ -3296,10 +3176,8 @@
           <t>RHD_THP_007</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B64" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C64" t="n">
         <v>33.1</v>
@@ -3341,10 +3219,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B65" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C65" t="n">
         <v>34.5</v>
@@ -3386,10 +3262,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B66" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C66" t="n">
         <v>42.4</v>
@@ -3431,10 +3305,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B67" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C67" t="n">
         <v>40.3</v>
@@ -3476,10 +3348,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B68" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C68" t="n">
         <v>35.9</v>
@@ -3521,10 +3391,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B69" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C69" t="n">
         <v>35.9</v>
@@ -3566,10 +3434,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B70" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C70" t="n">
         <v>33.8</v>
@@ -3611,10 +3477,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B71" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C71" t="n">
         <v>39.5</v>
@@ -3656,10 +3520,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B72" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C72" t="n">
         <v>40.7</v>
@@ -3701,10 +3563,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B73" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C73" t="n">
         <v>36.2</v>
@@ -3746,10 +3606,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B74" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C74" t="n">
         <v>39.3</v>
@@ -3791,10 +3649,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B75" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C75" t="n">
         <v>39.4</v>
@@ -3836,10 +3692,8 @@
           <t>RHD_THP_008</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B76" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C76" t="n">
         <v>38.8</v>
@@ -3881,10 +3735,8 @@
           <t>RHD_THP_009</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B77" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C77" t="n">
         <v>25.5</v>
@@ -3926,10 +3778,8 @@
           <t>RHD_THP_009</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B78" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C78" t="n">
         <v>22.9</v>
@@ -3971,10 +3821,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B79" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C79" t="n">
         <v>39.7</v>
@@ -4016,10 +3864,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B80" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C80" t="n">
         <v>40</v>
@@ -4061,10 +3907,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B81" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C81" t="n">
         <v>38.2</v>
@@ -4106,10 +3950,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B82" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C82" t="n">
         <v>36.4</v>
@@ -4151,10 +3993,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B83" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C83" t="n">
         <v>33.7</v>
@@ -4196,10 +4036,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B84" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C84" t="n">
         <v>30.9</v>
@@ -4241,10 +4079,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B85" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C85" t="n">
         <v>42.2</v>
@@ -4286,10 +4122,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B86" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C86" t="n">
         <v>33.5</v>
@@ -4331,10 +4165,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B87" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C87" t="n">
         <v>31.1</v>
@@ -4376,10 +4208,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B88" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C88" t="n">
         <v>36.6</v>
@@ -4421,10 +4251,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B89" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C89" t="n">
         <v>32.4</v>
@@ -4466,10 +4294,8 @@
           <t>RHD_THP_010</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B90" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C90" t="n">
         <v>35.3</v>
@@ -4511,10 +4337,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B91" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C91" t="n">
         <v>34.5</v>
@@ -4556,10 +4380,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B92" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C92" t="n">
         <v>36.23</v>
@@ -4601,10 +4423,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B93" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C93" t="n">
         <v>37.97</v>
@@ -4646,10 +4466,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B94" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C94" t="n">
         <v>39.7</v>
@@ -4691,10 +4509,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B95" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C95" t="n">
         <v>31.5</v>
@@ -4736,10 +4552,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B96" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C96" t="n">
         <v>30.7</v>
@@ -4781,10 +4595,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B97" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C97" t="n">
         <v>36</v>
@@ -4826,10 +4638,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B98" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C98" t="n">
         <v>34.7</v>
@@ -4871,10 +4681,8 @@
           <t>RHD_THP_012</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B99" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C99" t="n">
         <v>36.8</v>
@@ -4916,10 +4724,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B100" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C100" t="n">
         <v>32.8</v>
@@ -4961,10 +4767,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B101" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C101" t="n">
         <v>34.3</v>
@@ -5006,10 +4810,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B102" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C102" t="n">
         <v>37.3</v>
@@ -5051,10 +4853,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B103" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C103" t="n">
         <v>32.7</v>
@@ -5096,10 +4896,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B104" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C104" t="n">
         <v>34.9</v>
@@ -5141,10 +4939,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B105" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C105" t="n">
         <v>34.15</v>
@@ -5186,10 +4982,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B106" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C106" t="n">
         <v>33.4</v>
@@ -5231,10 +5025,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B107" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C107" t="n">
         <v>35</v>
@@ -5276,10 +5068,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B108" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C108" t="n">
         <v>36.2</v>
@@ -5321,10 +5111,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B109" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C109" t="n">
         <v>39.8</v>
@@ -5366,10 +5154,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B110" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C110" t="n">
         <v>36.4</v>
@@ -5411,10 +5197,8 @@
           <t>RHD_THP_013</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B111" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C111" t="n">
         <v>38</v>
@@ -5456,10 +5240,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B112" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C112" t="n">
         <v>38.9</v>
@@ -5501,10 +5283,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B113" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C113" t="n">
         <v>38.9</v>
@@ -5546,10 +5326,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B114" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C114" t="n">
         <v>38.9</v>
@@ -5591,10 +5369,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B115" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C115" t="n">
         <v>38.9</v>
@@ -5636,10 +5412,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B116" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C116" t="n">
         <v>38.9</v>
@@ -5681,10 +5455,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B117" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C117" t="n">
         <v>38.9</v>
@@ -5726,10 +5498,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B118" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C118" t="n">
         <v>38.9</v>
@@ -5771,10 +5541,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B119" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C119" t="n">
         <v>33.6</v>
@@ -5816,10 +5584,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B120" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C120" t="n">
         <v>34.2</v>
@@ -5861,10 +5627,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B121" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C121" t="n">
         <v>36.2</v>
@@ -5906,10 +5670,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B122" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C122" t="n">
         <v>37.7</v>
@@ -5951,10 +5713,8 @@
           <t>RHD_THP_014</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B123" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C123" t="n">
         <v>36.9</v>
@@ -5996,10 +5756,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B124" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C124" t="n">
         <v>32.5</v>
@@ -6041,10 +5799,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B125" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C125" t="n">
         <v>32.5</v>
@@ -6086,10 +5842,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B126" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C126" t="n">
         <v>32.6</v>
@@ -6131,10 +5885,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B127" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C127" t="n">
         <v>35.5</v>
@@ -6176,10 +5928,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B128" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C128" t="n">
         <v>31.6</v>
@@ -6221,10 +5971,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B129" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C129" t="n">
         <v>32.8</v>
@@ -6266,10 +6014,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B130" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C130" t="n">
         <v>33.4</v>
@@ -6311,10 +6057,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B131" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C131" t="n">
         <v>31.8</v>
@@ -6356,10 +6100,8 @@
           <t>RHD_THP_015</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B132" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C132" t="n">
         <v>32</v>
@@ -6401,10 +6143,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B133" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C133" t="n">
         <v>31.8</v>
@@ -6446,10 +6186,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B134" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C134" t="n">
         <v>35.9</v>
@@ -6491,10 +6229,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B135" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C135" t="n">
         <v>40</v>
@@ -6536,10 +6272,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B136" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C136" t="n">
         <v>22.2</v>
@@ -6581,10 +6315,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B137" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C137" t="n">
         <v>29.5</v>
@@ -6626,10 +6358,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B138" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C138" t="n">
         <v>35</v>
@@ -6671,10 +6401,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B139" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C139" t="n">
         <v>35.3</v>
@@ -6716,10 +6444,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B140" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C140" t="n">
         <v>41.6</v>
@@ -6761,10 +6487,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B141" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C141" t="n">
         <v>33.8</v>
@@ -6806,10 +6530,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B142" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C142" t="n">
         <v>32.8</v>
@@ -6851,10 +6573,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B143" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C143" t="n">
         <v>37.9</v>
@@ -6896,10 +6616,8 @@
           <t>RHD_THP_016</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B144" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C144" t="n">
         <v>40.4</v>
@@ -6941,10 +6659,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B145" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C145" t="n">
         <v>42.6</v>
@@ -6986,10 +6702,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B146" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C146" t="n">
         <v>39.53</v>
@@ -7031,10 +6745,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B147" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C147" t="n">
         <v>36.47</v>
@@ -7076,10 +6788,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B148" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C148" t="n">
         <v>33.4</v>
@@ -7121,10 +6831,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B149" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C149" t="n">
         <v>36.2</v>
@@ -7166,10 +6874,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B150" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C150" t="n">
         <v>36.9</v>
@@ -7211,10 +6917,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B151" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C151" t="n">
         <v>38.63</v>
@@ -7256,10 +6960,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B152" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C152" t="n">
         <v>40.37</v>
@@ -7301,10 +7003,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B153" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C153" t="n">
         <v>42.1</v>
@@ -7346,10 +7046,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B154" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C154" t="n">
         <v>44</v>
@@ -7391,10 +7089,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B155" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C155" t="n">
         <v>35.7</v>
@@ -7436,10 +7132,8 @@
           <t>RHD_THP_017</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B156" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C156" t="n">
         <v>42.1</v>
@@ -7481,10 +7175,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B157" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C157" t="n">
         <v>36.2</v>
@@ -7526,10 +7218,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B158" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C158" t="n">
         <v>36.2</v>
@@ -7571,10 +7261,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B159" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C159" t="n">
         <v>32</v>
@@ -7616,10 +7304,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B160" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C160" t="n">
         <v>37.6</v>
@@ -7661,10 +7347,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B161" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C161" t="n">
         <v>37.1</v>
@@ -7706,10 +7390,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B162" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C162" t="n">
         <v>34.4</v>
@@ -7751,10 +7433,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B163" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C163" t="n">
         <v>38</v>
@@ -7796,10 +7476,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B164" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C164" t="n">
         <v>36.7</v>
@@ -7841,10 +7519,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B165" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C165" t="n">
         <v>34.1</v>
@@ -7886,10 +7562,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B166" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C166" t="n">
         <v>35.2</v>
@@ -7931,10 +7605,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B167" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C167" t="n">
         <v>37.3</v>
@@ -7976,10 +7648,8 @@
           <t>RHD_THP_018</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B168" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C168" t="n">
         <v>37.3</v>
@@ -8021,10 +7691,8 @@
           <t>RHD_THP_019</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B169" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C169" t="n">
         <v>35.2</v>
@@ -8066,10 +7734,8 @@
           <t>RHD_THP_019</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B170" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C170" t="n">
         <v>35.2</v>
@@ -8111,10 +7777,8 @@
           <t>RHD_THP_021</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B171" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C171" t="n">
         <v>39.7</v>
@@ -8156,10 +7820,8 @@
           <t>RHD_THP_021</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B172" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C172" t="n">
         <v>26</v>
@@ -8201,10 +7863,8 @@
           <t>RHD_THP_021</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B173" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C173" t="n">
         <v>26.2</v>
@@ -8246,10 +7906,8 @@
           <t>RHD_THP_021</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B174" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C174" t="n">
         <v>33</v>
@@ -8291,10 +7949,8 @@
           <t>RHD_THP_021</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B175" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C175" t="n">
         <v>33.7</v>
@@ -8336,10 +7992,8 @@
           <t>RHD_THP_021</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B176" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C176" t="n">
         <v>30.5</v>
@@ -8381,10 +8035,8 @@
           <t>RHD_THP_022</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B177" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C177" t="n">
         <v>26.9</v>
@@ -8426,10 +8078,8 @@
           <t>RHD_THP_022</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B178" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C178" t="n">
         <v>37.3</v>
@@ -8471,10 +8121,8 @@
           <t>RHD_THP_022</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B179" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C179" t="n">
         <v>33.1</v>
@@ -8516,10 +8164,8 @@
           <t>RHD_THP_022</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B180" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C180" t="n">
         <v>37.2</v>
@@ -8561,10 +8207,8 @@
           <t>RHD_THP_022</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B181" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C181" t="n">
         <v>38.4</v>
@@ -8606,10 +8250,8 @@
           <t>RHD_THP_022</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B182" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C182" t="n">
         <v>34.2</v>
@@ -8651,10 +8293,8 @@
           <t>RHD_THP_022</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B183" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C183" t="n">
         <v>34.5</v>
@@ -8696,10 +8336,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B184" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C184" t="n">
         <v>25.8</v>
@@ -8741,10 +8379,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B185" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C185" t="n">
         <v>25.1</v>
@@ -8786,10 +8422,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B186" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C186" t="n">
         <v>26.95</v>
@@ -8831,10 +8465,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B187" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C187" t="n">
         <v>28.8</v>
@@ -8876,10 +8508,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B188" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C188" t="n">
         <v>26.2</v>
@@ -8921,10 +8551,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B189" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C189" t="n">
         <v>29</v>
@@ -8966,10 +8594,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B190" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C190" t="n">
         <v>28</v>
@@ -9011,10 +8637,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B191" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C191" t="n">
         <v>26</v>
@@ -9056,10 +8680,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B192" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C192" t="n">
         <v>34.4</v>
@@ -9101,10 +8723,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B193" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C193" t="n">
         <v>34.4</v>
@@ -9146,10 +8766,8 @@
           <t>RHD_THP_023</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B194" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C194" t="n">
         <v>33</v>
@@ -9191,10 +8809,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B195" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C195" t="n">
         <v>30.1</v>
@@ -9236,10 +8852,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B196" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C196" t="n">
         <v>38</v>
@@ -9281,10 +8895,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B197" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C197" t="n">
         <v>34.7</v>
@@ -9326,10 +8938,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B198" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C198" t="n">
         <v>32.5</v>
@@ -9371,10 +8981,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B199" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C199" t="n">
         <v>53</v>
@@ -9416,10 +9024,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B200" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C200" t="n">
         <v>33.4</v>
@@ -9461,10 +9067,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B201" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C201" t="n">
         <v>40.7</v>
@@ -9506,10 +9110,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B202" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C202" t="n">
         <v>38.3</v>
@@ -9551,10 +9153,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B203" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C203" t="n">
         <v>35.9</v>
@@ -9596,10 +9196,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B204" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C204" t="n">
         <v>33.5</v>
@@ -9641,10 +9239,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B205" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C205" t="n">
         <v>36.7</v>
@@ -9686,10 +9282,8 @@
           <t>RHD_THP_024</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B206" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C206" t="n">
         <v>36.7</v>
@@ -9731,10 +9325,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B207" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C207" t="n">
         <v>30</v>
@@ -9776,10 +9368,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B208" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C208" t="n">
         <v>42</v>
@@ -9821,10 +9411,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B209" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C209" t="n">
         <v>42</v>
@@ -9866,10 +9454,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B210" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C210" t="n">
         <v>36.8</v>
@@ -9911,10 +9497,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B211" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C211" t="n">
         <v>31.6</v>
@@ -9956,10 +9540,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B212" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C212" t="n">
         <v>36.25</v>
@@ -10001,10 +9583,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B213" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C213" t="n">
         <v>40.9</v>
@@ -10046,10 +9626,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B214" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C214" t="n">
         <v>40</v>
@@ -10091,10 +9669,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B215" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C215" t="n">
         <v>34.8</v>
@@ -10136,10 +9712,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B216" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C216" t="n">
         <v>34.9</v>
@@ -10181,10 +9755,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B217" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C217" t="n">
         <v>36.5</v>
@@ -10226,10 +9798,8 @@
           <t>RHD_THP_025</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B218" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C218" t="n">
         <v>36.7</v>
@@ -10271,10 +9841,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B219" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C219" t="n">
         <v>27.8</v>
@@ -10316,10 +9884,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B220" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C220" t="n">
         <v>32.8</v>
@@ -10361,10 +9927,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B221" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C221" t="n">
         <v>32.1</v>
@@ -10406,10 +9970,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B222" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C222" t="n">
         <v>30.6</v>
@@ -10451,10 +10013,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B223" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C223" t="n">
         <v>33</v>
@@ -10496,10 +10056,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B224" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C224" t="n">
         <v>31</v>
@@ -10541,10 +10099,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B225" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C225" t="n">
         <v>31</v>
@@ -10586,10 +10142,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B226" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C226" t="n">
         <v>31</v>
@@ -10631,10 +10185,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B227" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C227" t="n">
         <v>31</v>
@@ -10676,10 +10228,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B228" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C228" t="n">
         <v>31</v>
@@ -10721,10 +10271,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B229" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C229" t="n">
         <v>36.5</v>
@@ -10766,10 +10314,8 @@
           <t>RHD_THP_026</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B230" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C230" t="n">
         <v>31.9</v>
@@ -10811,10 +10357,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B231" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C231" t="n">
         <v>26.2</v>
@@ -10856,10 +10400,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B232" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C232" t="n">
         <v>36.5</v>
@@ -10901,10 +10443,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B233" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C233" t="n">
         <v>36.4</v>
@@ -10946,10 +10486,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B234" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C234" t="n">
         <v>36.3</v>
@@ -10991,10 +10529,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B235" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C235" t="n">
         <v>33.7</v>
@@ -11036,10 +10572,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B236" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C236" t="n">
         <v>32.2</v>
@@ -11081,10 +10615,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B237" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C237" t="n">
         <v>40.5</v>
@@ -11126,10 +10658,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B238" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C238" t="n">
         <v>39.1</v>
@@ -11171,10 +10701,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B239" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C239" t="n">
         <v>31.1</v>
@@ -11216,10 +10744,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B240" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C240" t="n">
         <v>30.95</v>
@@ -11261,10 +10787,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B241" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C241" t="n">
         <v>30.8</v>
@@ -11306,10 +10830,8 @@
           <t>RHD_THP_027</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B242" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C242" t="n">
         <v>30.6</v>
@@ -11351,10 +10873,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B243" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C243" t="n">
         <v>31</v>
@@ -11396,10 +10916,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B244" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C244" t="n">
         <v>31.2</v>
@@ -11441,10 +10959,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B245" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C245" t="n">
         <v>46.5</v>
@@ -11486,10 +11002,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B246" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C246" t="n">
         <v>30.8</v>
@@ -11531,10 +11045,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B247" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C247" t="n">
         <v>37</v>
@@ -11576,10 +11088,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B248" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C248" t="n">
         <v>30.7</v>
@@ -11621,10 +11131,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B249" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C249" t="n">
         <v>38.3</v>
@@ -11666,10 +11174,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B250" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C250" t="n">
         <v>33.45</v>
@@ -11711,10 +11217,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B251" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C251" t="n">
         <v>28.6</v>
@@ -11756,10 +11260,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B252" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C252" t="n">
         <v>28.3</v>
@@ -11801,10 +11303,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B253" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C253" t="n">
         <v>34.1</v>
@@ -11846,10 +11346,8 @@
           <t>RHD_THP_028</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B254" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C254" t="n">
         <v>32.5</v>
@@ -11891,10 +11389,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B255" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C255" t="n">
         <v>29.2</v>
@@ -11936,10 +11432,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B256" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C256" t="n">
         <v>29.2</v>
@@ -11981,10 +11475,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B257" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C257" t="n">
         <v>27.2</v>
@@ -12026,10 +11518,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B258" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C258" t="n">
         <v>25.2</v>
@@ -12071,10 +11561,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B259" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C259" t="n">
         <v>27.9</v>
@@ -12116,10 +11604,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B260" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C260" t="n">
         <v>26.5</v>
@@ -12161,10 +11647,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B261" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C261" t="n">
         <v>29.4</v>
@@ -12206,10 +11690,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B262" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C262" t="n">
         <v>32.3</v>
@@ -12251,10 +11733,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B263" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C263" t="n">
         <v>31.1</v>
@@ -12296,10 +11776,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B264" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C264" t="n">
         <v>32.2</v>
@@ -12341,10 +11819,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B265" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C265" t="n">
         <v>32.55</v>
@@ -12386,10 +11862,8 @@
           <t>RHD_THP_029</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B266" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C266" t="n">
         <v>32.9</v>
@@ -12431,10 +11905,8 @@
           <t>RHD_THP_030</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B267" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C267" t="n">
         <v>28</v>
@@ -12476,10 +11948,8 @@
           <t>RHD_THP_030</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B268" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C268" t="n">
         <v>30</v>
@@ -12521,10 +11991,8 @@
           <t>RHD_THP_030</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B269" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C269" t="n">
         <v>31</v>
@@ -12566,10 +12034,8 @@
           <t>RHD_THP_030</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B270" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C270" t="n">
         <v>33.9</v>
@@ -12611,10 +12077,8 @@
           <t>RHD_THP_030</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B271" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C271" t="n">
         <v>34.8</v>
@@ -12656,10 +12120,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B272" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C272" t="n">
         <v>35.1</v>
@@ -12701,10 +12163,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B273" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C273" t="n">
         <v>34.07</v>
@@ -12746,10 +12206,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B274" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C274" t="n">
         <v>33.03</v>
@@ -12791,10 +12249,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B275" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C275" t="n">
         <v>32</v>
@@ -12836,10 +12292,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B276" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C276" t="n">
         <v>32</v>
@@ -12881,10 +12335,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B277" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C277" t="n">
         <v>38.4</v>
@@ -12926,10 +12378,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B278" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C278" t="n">
         <v>35.7</v>
@@ -12971,10 +12421,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B279" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C279" t="n">
         <v>33</v>
@@ -13016,10 +12464,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B280" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C280" t="n">
         <v>39</v>
@@ -13061,10 +12507,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B281" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C281" t="n">
         <v>37</v>
@@ -13106,10 +12550,8 @@
           <t>RHD_THP_031</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B282" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C282" t="n">
         <v>37.5</v>
@@ -13151,10 +12593,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B283" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C283" t="n">
         <v>35.4</v>
@@ -13196,10 +12636,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B284" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C284" t="n">
         <v>36.35</v>
@@ -13241,10 +12679,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B285" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C285" t="n">
         <v>37.3</v>
@@ -13286,10 +12722,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B286" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C286" t="n">
         <v>36.4</v>
@@ -13331,10 +12765,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B287" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C287" t="n">
         <v>33.1</v>
@@ -13376,10 +12808,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B288" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C288" t="n">
         <v>41.6</v>
@@ -13421,10 +12851,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B289" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C289" t="n">
         <v>39.8</v>
@@ -13466,10 +12894,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B290" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C290" t="n">
         <v>33.8</v>
@@ -13511,10 +12937,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B291" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C291" t="n">
         <v>34.6</v>
@@ -13556,10 +12980,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B292" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C292" t="n">
         <v>41.1</v>
@@ -13601,10 +13023,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B293" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C293" t="n">
         <v>40.1</v>
@@ -13646,10 +13066,8 @@
           <t>RHD_THP_032</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B294" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C294" t="n">
         <v>36.1</v>
@@ -13691,10 +13109,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B295" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C295" t="n">
         <v>26.4</v>
@@ -13736,10 +13152,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B296" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C296" t="n">
         <v>31.3</v>
@@ -13781,10 +13195,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B297" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C297" t="n">
         <v>36.2</v>
@@ -13826,10 +13238,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B298" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C298" t="n">
         <v>40.3</v>
@@ -13871,10 +13281,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B299" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C299" t="n">
         <v>34.5</v>
@@ -13916,10 +13324,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B300" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C300" t="n">
         <v>30.9</v>
@@ -13961,10 +13367,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B301" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C301" t="n">
         <v>30.1</v>
@@ -14006,10 +13410,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B302" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C302" t="n">
         <v>33.8</v>
@@ -14051,10 +13453,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B303" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C303" t="n">
         <v>37.5</v>
@@ -14096,10 +13496,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B304" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C304" t="n">
         <v>34.6</v>
@@ -14141,10 +13539,8 @@
           <t>RHD_THP_033</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B305" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C305" t="n">
         <v>35.9</v>
@@ -14186,10 +13582,8 @@
           <t>RHD_THP_034</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B306" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C306" t="n">
         <v>33.1</v>
@@ -14231,10 +13625,8 @@
           <t>RHD_THP_035</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B307" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C307" t="n">
         <v>33.3</v>
@@ -14276,10 +13668,8 @@
           <t>RHD_THP_035</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B308" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C308" t="n">
         <v>33.3</v>
@@ -14321,10 +13711,8 @@
           <t>RHD_THP_035</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B309" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C309" t="n">
         <v>33.3</v>
@@ -14366,10 +13754,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B310" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C310" t="n">
         <v>38</v>
@@ -14411,10 +13797,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B311" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C311" t="n">
         <v>38</v>
@@ -14456,10 +13840,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B312" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C312" t="n">
         <v>38</v>
@@ -14501,10 +13883,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B313" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C313" t="n">
         <v>31.7</v>
@@ -14546,10 +13926,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B314" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C314" t="n">
         <v>31.85</v>
@@ -14591,10 +13969,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B315" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C315" t="n">
         <v>32</v>
@@ -14636,10 +14012,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B316" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C316" t="n">
         <v>38.6</v>
@@ -14681,10 +14055,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B317" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C317" t="n">
         <v>24</v>
@@ -14726,10 +14098,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B318" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C318" t="n">
         <v>27.33</v>
@@ -14771,10 +14141,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B319" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C319" t="n">
         <v>30.67</v>
@@ -14816,10 +14184,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B320" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C320" t="n">
         <v>34</v>
@@ -14861,10 +14227,8 @@
           <t>RHD_THP_036</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B321" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C321" t="n">
         <v>34.3</v>
@@ -14906,10 +14270,8 @@
           <t>RHD_THP_037</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B322" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C322" t="n">
         <v>38</v>
@@ -14951,10 +14313,8 @@
           <t>RHD_THP_037</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B323" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C323" t="n">
         <v>39.3</v>
@@ -14996,10 +14356,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B324" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C324" t="n">
         <v>35.9</v>
@@ -15041,10 +14399,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B325" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C325" t="n">
         <v>41</v>
@@ -15086,10 +14442,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B326" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C326" t="n">
         <v>31.2</v>
@@ -15131,10 +14485,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B327" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C327" t="n">
         <v>32</v>
@@ -15176,10 +14528,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B328" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C328" t="n">
         <v>31.1</v>
@@ -15221,10 +14571,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B329" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C329" t="n">
         <v>35.7</v>
@@ -15266,10 +14614,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B330" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C330" t="n">
         <v>40.3</v>
@@ -15311,10 +14657,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B331" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C331" t="n">
         <v>33.1</v>
@@ -15356,10 +14700,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B332" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C332" t="n">
         <v>38.1</v>
@@ -15401,10 +14743,8 @@
           <t>RHD_THP_038</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B333" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C333" t="n">
         <v>34.4</v>
@@ -15446,10 +14786,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B334" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C334" t="n">
         <v>32.5</v>
@@ -15491,10 +14829,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B335" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C335" t="n">
         <v>41.3</v>
@@ -15536,10 +14872,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B336" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C336" t="n">
         <v>34.5</v>
@@ -15581,10 +14915,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B337" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C337" t="n">
         <v>37.5</v>
@@ -15626,10 +14958,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B338" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C338" t="n">
         <v>35.4</v>
@@ -15671,10 +15001,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B339" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C339" t="n">
         <v>33.3</v>
@@ -15716,10 +15044,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B340" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C340" t="n">
         <v>38.1</v>
@@ -15761,10 +15087,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B341" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C341" t="n">
         <v>31.8</v>
@@ -15806,10 +15130,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B342" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C342" t="n">
         <v>28.9</v>
@@ -15851,10 +15173,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B343" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C343" t="n">
         <v>27.6</v>
@@ -15896,10 +15216,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B344" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C344" t="n">
         <v>33.8</v>
@@ -15941,10 +15259,8 @@
           <t>RHD_THP_039</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B345" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C345" t="n">
         <v>32.5</v>
@@ -15986,10 +15302,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B346" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C346" t="n">
         <v>32</v>
@@ -16031,10 +15345,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B347" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C347" t="n">
         <v>36.2</v>
@@ -16076,10 +15388,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B348" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C348" t="n">
         <v>33.75</v>
@@ -16121,10 +15431,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B349" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C349" t="n">
         <v>31.3</v>
@@ -16166,10 +15474,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B350" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C350" t="n">
         <v>33.7</v>
@@ -16211,10 +15517,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B351" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C351" t="n">
         <v>32.2</v>
@@ -16256,10 +15560,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B352" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C352" t="n">
         <v>37.3</v>
@@ -16301,10 +15603,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B353" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C353" t="n">
         <v>30.2</v>
@@ -16346,10 +15646,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B354" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C354" t="n">
         <v>31.7</v>
@@ -16391,10 +15689,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B355" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C355" t="n">
         <v>35.5</v>
@@ -16436,10 +15732,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B356" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C356" t="n">
         <v>36.9</v>
@@ -16481,10 +15775,8 @@
           <t>RHD_THP_040</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B357" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C357" t="n">
         <v>34.3</v>
@@ -16526,10 +15818,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>1/1/2024</t>
-        </is>
+      <c r="B358" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="C358" t="n">
         <v>24.3</v>
@@ -16571,10 +15861,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B359" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C359" t="n">
         <v>26.48</v>
@@ -16616,10 +15904,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B360" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C360" t="n">
         <v>28.65</v>
@@ -16661,10 +15947,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B361" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C361" t="n">
         <v>30.82</v>
@@ -16706,10 +15990,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B362" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C362" t="n">
         <v>33</v>
@@ -16751,10 +16033,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B363" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C363" t="n">
         <v>27.5</v>
@@ -16796,10 +16076,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B364" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C364" t="n">
         <v>34.7</v>
@@ -16841,10 +16119,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B365" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C365" t="n">
         <v>31.2</v>
@@ -16886,10 +16162,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B366" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C366" t="n">
         <v>34.8</v>
@@ -16931,10 +16205,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B367" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C367" t="n">
         <v>34.4</v>
@@ -16976,10 +16248,8 @@
           <t>RHD_THP_041</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B368" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C368" t="n">
         <v>36.4</v>
@@ -17021,10 +16291,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2/1/2024</t>
-        </is>
+      <c r="B369" s="2" t="n">
+        <v>45323</v>
       </c>
       <c r="C369" t="n">
         <v>32</v>
@@ -17066,10 +16334,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B370" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C370" t="n">
         <v>32</v>
@@ -17111,10 +16377,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B371" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C371" t="n">
         <v>26.7</v>
@@ -17156,10 +16420,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B372" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C372" t="n">
         <v>27.5</v>
@@ -17201,10 +16463,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B373" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C373" t="n">
         <v>26.5</v>
@@ -17246,10 +16506,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B374" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C374" t="n">
         <v>32.1</v>
@@ -17291,10 +16549,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B375" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C375" t="n">
         <v>26.3</v>
@@ -17336,10 +16592,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B376" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C376" t="n">
         <v>28.2</v>
@@ -17381,10 +16635,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B377" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C377" t="n">
         <v>29.1</v>
@@ -17426,10 +16678,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B378" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C378" t="n">
         <v>29</v>
@@ -17471,10 +16721,8 @@
           <t>RHD_THP_042</t>
         </is>
       </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B379" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C379" t="n">
         <v>30.7</v>
@@ -17516,10 +16764,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>3/1/2024</t>
-        </is>
+      <c r="B380" s="2" t="n">
+        <v>45352</v>
       </c>
       <c r="C380" t="n">
         <v>34.1</v>
@@ -17561,10 +16807,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>4/1/2024</t>
-        </is>
+      <c r="B381" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="C381" t="n">
         <v>31.8</v>
@@ -17606,10 +16850,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>5/1/2024</t>
-        </is>
+      <c r="B382" s="2" t="n">
+        <v>45413</v>
       </c>
       <c r="C382" t="n">
         <v>34.5</v>
@@ -17651,10 +16893,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B383" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C383" t="n">
         <v>36.45</v>
@@ -17696,10 +16936,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B384" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C384" t="n">
         <v>38.4</v>
@@ -17741,10 +16979,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B385" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C385" t="n">
         <v>31.3</v>
@@ -17786,10 +17022,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B386" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C386" t="n">
         <v>31.3</v>
@@ -17831,10 +17065,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B387" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C387" t="n">
         <v>38.6</v>
@@ -17876,10 +17108,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B388" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C388" t="n">
         <v>38.6</v>
@@ -17921,10 +17151,8 @@
           <t>RHD_THP_043</t>
         </is>
       </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B389" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C389" t="n">
         <v>38.4</v>
@@ -17966,10 +17194,8 @@
           <t>RHD_THP_044</t>
         </is>
       </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B390" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C390" t="n">
         <v>33.3</v>
@@ -18011,10 +17237,8 @@
           <t>RHD_THP_044</t>
         </is>
       </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B391" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C391" t="n">
         <v>36.1</v>
@@ -18056,10 +17280,8 @@
           <t>RHD_THP_044</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B392" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C392" t="n">
         <v>40.3</v>
@@ -18101,10 +17323,8 @@
           <t>RHD_THP_044</t>
         </is>
       </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B393" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C393" t="n">
         <v>37.8</v>
@@ -18146,10 +17366,8 @@
           <t>RHD_THP_045</t>
         </is>
       </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>6/1/2024</t>
-        </is>
+      <c r="B394" s="2" t="n">
+        <v>45444</v>
       </c>
       <c r="C394" t="n">
         <v>31.4</v>
@@ -18191,10 +17409,8 @@
           <t>RHD_THP_045</t>
         </is>
       </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>7/1/2024</t>
-        </is>
+      <c r="B395" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="C395" t="n">
         <v>31.4</v>
@@ -18236,10 +17452,8 @@
           <t>RHD_THP_045</t>
         </is>
       </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="B396" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C396" t="n">
         <v>31.4</v>
@@ -18281,10 +17495,8 @@
           <t>RHD_THP_045</t>
         </is>
       </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>9/1/2024</t>
-        </is>
+      <c r="B397" s="2" t="n">
+        <v>45536</v>
       </c>
       <c r="C397" t="n">
         <v>32.6</v>
@@ -18326,10 +17538,8 @@
           <t>RHD_THP_045</t>
         </is>
       </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>10/1/2024</t>
-        </is>
+      <c r="B398" s="2" t="n">
+        <v>45566</v>
       </c>
       <c r="C398" t="n">
         <v>32.6</v>
@@ -18371,10 +17581,8 @@
           <t>RHD_THP_045</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>11/1/2024</t>
-        </is>
+      <c r="B399" s="2" t="n">
+        <v>45597</v>
       </c>
       <c r="C399" t="n">
         <v>32.1</v>
@@ -18416,10 +17624,8 @@
           <t>RHD_THP_045</t>
         </is>
       </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>12/1/2024</t>
-        </is>
+      <c r="B400" s="2" t="n">
+        <v>45627</v>
       </c>
       <c r="C400" t="n">
         <v>34.8</v>
